--- a/biology/Neurosciences/Réseau_neuronal_résiduel/Réseau_neuronal_résiduel.xlsx
+++ b/biology/Neurosciences/Réseau_neuronal_résiduel/Réseau_neuronal_résiduel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_neuronal_r%C3%A9siduel</t>
+          <t>Réseau_neuronal_résiduel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Un réseau neuronal résiduel (ResNet) [1] est un réseau neuronal artificiel (ANN). Il s'agit d'une variante du HighwayNet , le premier réseau neuronal à action directe très profond avec des centaines de couches, beaucoup plus profond que les réseaux neuronaux précédents. Les sauts de connexion ou « raccourcis » sont utilisés pour passer par-dessus certaines couches (les HighwayNets peuvent également avoir des poids pour les saut eux-mêmes, grâce à une matrice de poids supplémentaire pour leurs portes). Les neurones à l'origine d'un saut de connexion sont appelés les neurones « amonts ». Les modèles ResNet typiques sont mis en œuvre avec des sauts à double ou triple couche qui contiennent des non-linéarités (ReLU) et une normalisation par lots entre les deux. Les modèles avec plusieurs sauts parallèles sont appelés DenseNets[2]. Dans le contexte des réseaux de neurones résiduels, un réseau non résiduel peut être décrit comme un réseau simple.
-Comme dans le cas des réseaux de neurones récurrents à mémoire longue et à court terme[3], il existe deux raisons principales d'ajouter des connexions de saut : pour éviter le problème d’évanescence des gradients, conduisant ainsi à une optimisation plus facile des réseaux de neurones, où les mécanismes de déclenchement faciliter le flux d'informations à travers de nombreuses couches (« autoroutes de l'information »)[4], ou pour atténuer le problème de dégradation (saturation de la précision) ; où l'ajout de couches supplémentaires à un modèle suffisamment profond peut augmenter les erreurs liées à l'apprentissage[1]. Dans le cas le plus simple, seuls les poids de la connexion de la couche précédente sont adaptés, sans poids explicites pour la couche amont. Cela fonctionne mieux lorsqu'une seule couche non linéaire est franchie ou lorsque les couches intermédiaires sont toutes linéaires. Si ce n'est pas le cas, une matrice de pondération explicite doit être apprise pour la connexion ignorée (un HighwayNet doit être utilisé).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Un réseau neuronal résiduel (ResNet)  est un réseau neuronal artificiel (ANN). Il s'agit d'une variante du HighwayNet , le premier réseau neuronal à action directe très profond avec des centaines de couches, beaucoup plus profond que les réseaux neuronaux précédents. Les sauts de connexion ou « raccourcis » sont utilisés pour passer par-dessus certaines couches (les HighwayNets peuvent également avoir des poids pour les saut eux-mêmes, grâce à une matrice de poids supplémentaire pour leurs portes). Les neurones à l'origine d'un saut de connexion sont appelés les neurones « amonts ». Les modèles ResNet typiques sont mis en œuvre avec des sauts à double ou triple couche qui contiennent des non-linéarités (ReLU) et une normalisation par lots entre les deux. Les modèles avec plusieurs sauts parallèles sont appelés DenseNets. Dans le contexte des réseaux de neurones résiduels, un réseau non résiduel peut être décrit comme un réseau simple.
+Comme dans le cas des réseaux de neurones récurrents à mémoire longue et à court terme, il existe deux raisons principales d'ajouter des connexions de saut : pour éviter le problème d’évanescence des gradients, conduisant ainsi à une optimisation plus facile des réseaux de neurones, où les mécanismes de déclenchement faciliter le flux d'informations à travers de nombreuses couches (« autoroutes de l'information »), ou pour atténuer le problème de dégradation (saturation de la précision) ; où l'ajout de couches supplémentaires à un modèle suffisamment profond peut augmenter les erreurs liées à l'apprentissage. Dans le cas le plus simple, seuls les poids de la connexion de la couche précédente sont adaptés, sans poids explicites pour la couche amont. Cela fonctionne mieux lorsqu'une seule couche non linéaire est franchie ou lorsque les couches intermédiaires sont toutes linéaires. Si ce n'est pas le cas, une matrice de pondération explicite doit être apprise pour la connexion ignorée (un HighwayNet doit être utilisé).
 Les sauts peuvent permettre une simplification efficace du réseau, en utilisant moins de couches dans les étapes de formation initiales[pas clair] . Cela accélère l'apprentissage en réduisant l'impact de l’évanescence des gradients, car il y a moins de couches à traverser. Le réseau restaure ensuite progressivement les couches ignorées au fur et à mesure qu'il apprend l' espace des caractéristiques . Vers la fin de l'entraînement, lorsque toutes les couches sont développées, il reste plus proche du collecteur[pas clair] et apprend ainsi plus vite. Un réseau de neurones sans parties résiduelles explore davantage l'espace des caractéristiques. Cela le rend plus vulnérable aux perturbations et nécessite des données d'entraînement supplémentaires pour compenser.
-Un réseau neuronal résiduel a été utilisé pour remporter le concours ImageNet [5] 2015[1], et est devenu le réseau neuronal le plus cité du 21e siècle[6].
+Un réseau neuronal résiduel a été utilisé pour remporter le concours ImageNet  2015, et est devenu le réseau neuronal le plus cité du 21e siècle.
 Étant donné une matrice de poids 
           W
             ℓ
@@ -695,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_neuronal_r%C3%A9siduel</t>
+          <t>Réseau_neuronal_résiduel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,7 +725,9 @@
           <t>Propagation vers l'arrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant l'apprentissage par rétropropagation pour le chemin normal
         Δ
